--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh.Verma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48DA515-47CD-44E8-82E5-A0776B83979F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BEDA10-7661-4753-AC18-0FE6417639E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C5E0DD1-6ED0-481F-9F84-04FFD193D0EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Error message indicating missing required fields.</t>
   </si>
   <si>
-    <t>Error message: Required fields are missing.</t>
-  </si>
-  <si>
     <t>Leave Request Management</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>1. Navigate to the leave request page.
 2. Enter valid leave details.
 3. Click “Submit.”</t>
-  </si>
-  <si>
-    <t>Leave Type: Vacation, Start Date: 2024-10-01, End Date: 2024-10-05</t>
   </si>
   <si>
     <t>Leave request is submitted successfully with a confirmation message.</t>
@@ -498,6 +492,15 @@
 2. Click the “Add” button.
 3. Fill in valid employee details (e.g., name, ID, department).
 4. Click “Save.”</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Error message: no ERROR MESSAGE</t>
+  </si>
+  <si>
+    <t>Leave Type: CAN-FMLA, Start Date: 2024-10-01, End Date: 2024-10-05</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +543,18 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -607,19 +622,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -639,11 +648,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -661,6 +807,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -669,12 +821,33 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -863,119 +1036,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -996,25 +1060,15 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1023,26 +1077,115 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1069,8 +1212,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1085,115 +1232,26 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1220,12 +1278,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1240,26 +1294,115 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1286,8 +1429,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1302,115 +1449,26 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1437,12 +1495,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1457,26 +1511,115 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1503,15 +1646,46 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1551,122 +1725,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1689,46 +1747,15 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1744,79 +1771,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ED76DFC-1440-4F63-A878-874CB616DF1C}" name="Table1" displayName="Table1" ref="B1:H4" totalsRowShown="0" headerRowDxfId="37" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ED76DFC-1440-4F63-A878-874CB616DF1C}" name="Table1" displayName="Table1" ref="B1:H4" totalsRowShown="0" headerRowDxfId="45" dataDxfId="0">
   <autoFilter ref="B1:H4" xr:uid="{9ED76DFC-1440-4F63-A878-874CB616DF1C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1B5B68EC-7EBC-4F7F-9467-949DB41C1EB8}" name="Test Case ID" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{97431AC2-6C65-4D87-A5C2-5AD19CA4244C}" name="Test Case Desctripton" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{84FE61BB-2FBB-4C22-B677-BA8F43910505}" name="Test Steps" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{BAB72205-7139-4482-93BB-4C08175B4414}" name="Test Data" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{C85A9C83-06F2-4313-8E50-8B80A364B695}" name="Expected Result" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{D3A55DD5-2989-4230-82D1-576BE13DAC51}" name="Actual Result" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{7608B856-1A40-455A-880A-37B057004AC4}" name="Status" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{1B5B68EC-7EBC-4F7F-9467-949DB41C1EB8}" name="Test Case ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{97431AC2-6C65-4D87-A5C2-5AD19CA4244C}" name="Test Case Desctripton" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{84FE61BB-2FBB-4C22-B677-BA8F43910505}" name="Test Steps" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BAB72205-7139-4482-93BB-4C08175B4414}" name="Test Data" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C85A9C83-06F2-4313-8E50-8B80A364B695}" name="Expected Result" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D3A55DD5-2989-4230-82D1-576BE13DAC51}" name="Actual Result" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7608B856-1A40-455A-880A-37B057004AC4}" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2635E4C2-2452-44A1-AFB6-11DA342F6E99}" name="Table16" displayName="Table16" ref="B7:H10" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2635E4C2-2452-44A1-AFB6-11DA342F6E99}" name="Table16" displayName="Table16" ref="B7:H10" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B7:H10" xr:uid="{2635E4C2-2452-44A1-AFB6-11DA342F6E99}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{126025FC-8856-4F11-9665-8B2D631C4461}" name="Test Case ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{471D6D61-61D9-44CD-99C0-B299412DAE4D}" name="Test Case Desctripton" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{74AF4E40-914F-407F-97D8-695A7DA7B507}" name="Test Steps" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{A3518657-081E-44DD-8F3F-C299893B9A55}" name="Test Data" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{75242C8F-730C-4D68-941F-662F46FCE68C}" name="Expected Result" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{EC8AA4B4-1F53-4B11-A6F4-17D49A20BD55}" name="Actual Result" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{A6A82D53-97B5-4A8E-83BB-3425FE4B21C2}" name="Status" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{126025FC-8856-4F11-9665-8B2D631C4461}" name="Test Case ID" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{471D6D61-61D9-44CD-99C0-B299412DAE4D}" name="Test Case Desctripton" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{74AF4E40-914F-407F-97D8-695A7DA7B507}" name="Test Steps" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{A3518657-081E-44DD-8F3F-C299893B9A55}" name="Test Data" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{75242C8F-730C-4D68-941F-662F46FCE68C}" name="Expected Result" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{EC8AA4B4-1F53-4B11-A6F4-17D49A20BD55}" name="Actual Result" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{A6A82D53-97B5-4A8E-83BB-3425FE4B21C2}" name="Status" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1FDEF585-99AA-46CD-BCC0-2D2BDC6A5107}" name="Table17" displayName="Table17" ref="B13:H16" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1FDEF585-99AA-46CD-BCC0-2D2BDC6A5107}" name="Table17" displayName="Table17" ref="B13:H16" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B13:H16" xr:uid="{1FDEF585-99AA-46CD-BCC0-2D2BDC6A5107}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0A195D98-E5D7-4D46-A0E2-5EB7EE5F1BF2}" name="Test Case ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C18CD42B-44AA-437E-9038-D69D354E84EC}" name="Test Case Desctripton" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{CF49FEC0-AEB1-4628-8FE8-5AC8271F5F69}" name="Test Steps" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{C83B1B65-1276-467B-93C7-A5EFF4C1E2A5}" name="Test Data" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{EEBF7A06-AE9B-437C-A272-5B90D7BF675F}" name="Expected Result" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{8EED3C5E-9F3E-4DD7-B188-FA783E3DDDBE}" name="Actual Result" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{52DE9F4E-C43A-41C2-986B-8C29670FED2E}" name="Status" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{0A195D98-E5D7-4D46-A0E2-5EB7EE5F1BF2}" name="Test Case ID" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{C18CD42B-44AA-437E-9038-D69D354E84EC}" name="Test Case Desctripton" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{CF49FEC0-AEB1-4628-8FE8-5AC8271F5F69}" name="Test Steps" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{C83B1B65-1276-467B-93C7-A5EFF4C1E2A5}" name="Test Data" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{EEBF7A06-AE9B-437C-A272-5B90D7BF675F}" name="Expected Result" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{8EED3C5E-9F3E-4DD7-B188-FA783E3DDDBE}" name="Actual Result" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{52DE9F4E-C43A-41C2-986B-8C29670FED2E}" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F49C15CA-FC03-4A0D-B7DF-7C84540CD431}" name="Table18" displayName="Table18" ref="B19:H22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F49C15CA-FC03-4A0D-B7DF-7C84540CD431}" name="Table18" displayName="Table18" ref="B19:H22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B19:H22" xr:uid="{F49C15CA-FC03-4A0D-B7DF-7C84540CD431}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4C6D3E7A-E841-4ABD-9C3A-4EC95B6E0C5A}" name="Test Case ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B7237313-C062-4068-AC56-FA1E15CC8277}" name="Test Case Desctripton" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{AE9F89ED-4D7D-4657-961B-01CF217CD8D6}" name="Test Steps" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{7AB139FE-B3A1-43E3-A601-B49D795A4FC5}" name="Test Data" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{B0F7802E-7A8B-4EE4-9536-4FA5B5ED2C57}" name="Expected Result" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{DD5EE823-D371-430A-8611-6D2D79DFD552}" name="Actual Result" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{89267CBE-BCC7-4B8E-99CF-92DE5A1C8A37}" name="Status" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{4C6D3E7A-E841-4ABD-9C3A-4EC95B6E0C5A}" name="Test Case ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{B7237313-C062-4068-AC56-FA1E15CC8277}" name="Test Case Desctripton" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{AE9F89ED-4D7D-4657-961B-01CF217CD8D6}" name="Test Steps" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{7AB139FE-B3A1-43E3-A601-B49D795A4FC5}" name="Test Data" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{B0F7802E-7A8B-4EE4-9536-4FA5B5ED2C57}" name="Expected Result" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{DD5EE823-D371-430A-8611-6D2D79DFD552}" name="Actual Result" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{89267CBE-BCC7-4B8E-99CF-92DE5A1C8A37}" name="Status" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{12B85EA6-A43F-45BD-9CA5-854F1249133C}" name="Table19" displayName="Table19" ref="B25:H28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{12B85EA6-A43F-45BD-9CA5-854F1249133C}" name="Table19" displayName="Table19" ref="B25:H28" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9ABE83B2-6468-4AB4-B852-80630EDBB632}" name="Test Case ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{03FA3DA6-7CD4-42FB-8795-45EBF59A36D6}" name="Test Case Desctripton" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1160182E-DBA8-4A78-A192-4310A8063290}" name="Test Steps" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4766FE3C-5FBA-40B8-8E74-A43C5D1CEBA5}" name="Test Data" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{1964E9EB-52CA-4A06-97B9-A73BD6B56E53}" name="Expected Result" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{7F43807B-85F4-4137-A03D-FFF82C5E5259}" name="Actual Result" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{A89D947B-3392-4AA7-80BE-F112DED129CC}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9ABE83B2-6468-4AB4-B852-80630EDBB632}" name="Test Case ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{03FA3DA6-7CD4-42FB-8795-45EBF59A36D6}" name="Test Case Desctripton" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1160182E-DBA8-4A78-A192-4310A8063290}" name="Test Steps" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{4766FE3C-5FBA-40B8-8E74-A43C5D1CEBA5}" name="Test Data" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1964E9EB-52CA-4A06-97B9-A73BD6B56E53}" name="Expected Result" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{7F43807B-85F4-4137-A03D-FFF82C5E5259}" name="Actual Result" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A89D947B-3392-4AA7-80BE-F112DED129CC}" name="Status" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2139,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC5B36A-E12A-4644-B58F-3742A3DA0D14}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:I30"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,866 +2185,833 @@
     <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="C8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5">
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5">
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5">
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5">
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3">
         <v>5</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="5" t="s">
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="A26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="G26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="H26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="5">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3">
         <v>3</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="5">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="5" t="s">
+      <c r="H29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="5">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3">
         <v>5</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="F30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="H30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
